--- a/DATA_ANALYSIS/wake_velocities.xlsx
+++ b/DATA_ANALYSIS/wake_velocities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexv\OneDrive - Delft University of Technology\GitHub\2D-Wind-Tunnel\DATA_ANALYSIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98965CBE-0CA3-49E1-9C58-25CE5B0D9ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D3BF73-2435-4E52-8DDB-49FCF4C69147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{3012C55B-4FF9-472E-9306-58214AED9E0F}"/>
   </bookViews>
@@ -557,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C3A6E-A9A0-4C78-AE51-EDE9626D2C15}">
-  <dimension ref="A1:AV56"/>
+  <dimension ref="A1:AV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5247,3218 +5247,6 @@
         <v>25.074655677083612</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>15.5</v>
-      </c>
-      <c r="B35">
-        <v>25.810486286989484</v>
-      </c>
-      <c r="C35">
-        <v>25.784556484271764</v>
-      </c>
-      <c r="D35">
-        <v>25.837373242150434</v>
-      </c>
-      <c r="E35">
-        <v>24.799620329780659</v>
-      </c>
-      <c r="F35">
-        <v>24.685318409165735</v>
-      </c>
-      <c r="G35">
-        <v>25.680245738086334</v>
-      </c>
-      <c r="H35">
-        <v>25.626774736667411</v>
-      </c>
-      <c r="I35">
-        <v>25.217764527335461</v>
-      </c>
-      <c r="J35">
-        <v>22.957826814045546</v>
-      </c>
-      <c r="K35">
-        <v>22.843205197798348</v>
-      </c>
-      <c r="L35">
-        <v>21.487447845256654</v>
-      </c>
-      <c r="M35">
-        <v>19.640718732914788</v>
-      </c>
-      <c r="N35">
-        <v>18.984819462544337</v>
-      </c>
-      <c r="O35">
-        <v>20.012273964481562</v>
-      </c>
-      <c r="P35">
-        <v>19.275180919824226</v>
-      </c>
-      <c r="Q35">
-        <v>19.487941081263326</v>
-      </c>
-      <c r="R35">
-        <v>17.994260068910965</v>
-      </c>
-      <c r="S35">
-        <v>17.863913074888252</v>
-      </c>
-      <c r="T35">
-        <v>17.866756816872499</v>
-      </c>
-      <c r="U35">
-        <v>17.960819150458075</v>
-      </c>
-      <c r="V35">
-        <v>18.111518315194498</v>
-      </c>
-      <c r="W35">
-        <v>18.601393882199023</v>
-      </c>
-      <c r="X35">
-        <v>19.153995124060454</v>
-      </c>
-      <c r="Y35">
-        <v>19.457502705014964</v>
-      </c>
-      <c r="Z35">
-        <v>19.739197090513944</v>
-      </c>
-      <c r="AA35">
-        <v>20.253265174082056</v>
-      </c>
-      <c r="AB35">
-        <v>20.691680436560446</v>
-      </c>
-      <c r="AC35">
-        <v>21.115383992519916</v>
-      </c>
-      <c r="AD35">
-        <v>21.317327470058412</v>
-      </c>
-      <c r="AE35">
-        <v>21.906969804035416</v>
-      </c>
-      <c r="AF35">
-        <v>22.376956818202331</v>
-      </c>
-      <c r="AG35">
-        <v>22.325056073938264</v>
-      </c>
-      <c r="AH35">
-        <v>23.014923553668439</v>
-      </c>
-      <c r="AI35">
-        <v>23.311751641742106</v>
-      </c>
-      <c r="AJ35">
-        <v>23.58690490463988</v>
-      </c>
-      <c r="AK35">
-        <v>23.797053304516187</v>
-      </c>
-      <c r="AL35">
-        <v>24.088462425303142</v>
-      </c>
-      <c r="AM35">
-        <v>24.095843061336932</v>
-      </c>
-      <c r="AN35">
-        <v>24.345453389946677</v>
-      </c>
-      <c r="AO35">
-        <v>24.531857322851064</v>
-      </c>
-      <c r="AP35">
-        <v>24.712744263702962</v>
-      </c>
-      <c r="AQ35">
-        <v>24.789716804994033</v>
-      </c>
-      <c r="AR35">
-        <v>24.876664437398073</v>
-      </c>
-      <c r="AS35">
-        <v>25.016167507204582</v>
-      </c>
-      <c r="AT35">
-        <v>24.988058113110409</v>
-      </c>
-      <c r="AU35">
-        <v>24.977212307054366</v>
-      </c>
-      <c r="AV35">
-        <v>24.983313652315172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <v>25.822293763479866</v>
-      </c>
-      <c r="C36">
-        <v>25.795062836192432</v>
-      </c>
-      <c r="D36">
-        <v>25.848840865496356</v>
-      </c>
-      <c r="E36">
-        <v>24.818733194064741</v>
-      </c>
-      <c r="F36">
-        <v>24.708632326193019</v>
-      </c>
-      <c r="G36">
-        <v>25.742159267620227</v>
-      </c>
-      <c r="H36">
-        <v>25.72406168752596</v>
-      </c>
-      <c r="I36">
-        <v>25.351383263276936</v>
-      </c>
-      <c r="J36">
-        <v>23.181352545580818</v>
-      </c>
-      <c r="K36">
-        <v>23.165640707712242</v>
-      </c>
-      <c r="L36">
-        <v>21.989528721924952</v>
-      </c>
-      <c r="M36">
-        <v>20.182486686232846</v>
-      </c>
-      <c r="N36">
-        <v>19.609222112855356</v>
-      </c>
-      <c r="O36">
-        <v>20.639644366114819</v>
-      </c>
-      <c r="P36">
-        <v>20.005079795196846</v>
-      </c>
-      <c r="Q36">
-        <v>20.221885177586149</v>
-      </c>
-      <c r="R36">
-        <v>18.81637278657481</v>
-      </c>
-      <c r="S36">
-        <v>18.648220796241347</v>
-      </c>
-      <c r="T36">
-        <v>18.630504062578147</v>
-      </c>
-      <c r="U36">
-        <v>18.742427203452454</v>
-      </c>
-      <c r="V36">
-        <v>18.872090508720756</v>
-      </c>
-      <c r="W36">
-        <v>19.258040976494168</v>
-      </c>
-      <c r="X36">
-        <v>19.657955752979845</v>
-      </c>
-      <c r="Y36">
-        <v>19.906640695417714</v>
-      </c>
-      <c r="Z36">
-        <v>20.17325465108722</v>
-      </c>
-      <c r="AA36">
-        <v>20.626512209464313</v>
-      </c>
-      <c r="AB36">
-        <v>21.017713588891088</v>
-      </c>
-      <c r="AC36">
-        <v>21.418375865709553</v>
-      </c>
-      <c r="AD36">
-        <v>21.633933892882858</v>
-      </c>
-      <c r="AE36">
-        <v>22.180843967698575</v>
-      </c>
-      <c r="AF36">
-        <v>22.553727366451806</v>
-      </c>
-      <c r="AG36">
-        <v>22.424206709953037</v>
-      </c>
-      <c r="AH36">
-        <v>22.961883521063459</v>
-      </c>
-      <c r="AI36">
-        <v>23.284130211992956</v>
-      </c>
-      <c r="AJ36">
-        <v>23.531915740650263</v>
-      </c>
-      <c r="AK36">
-        <v>23.773913937590063</v>
-      </c>
-      <c r="AL36">
-        <v>24.093031657067367</v>
-      </c>
-      <c r="AM36">
-        <v>24.132712382640879</v>
-      </c>
-      <c r="AN36">
-        <v>24.394097091393203</v>
-      </c>
-      <c r="AO36">
-        <v>24.538069405049189</v>
-      </c>
-      <c r="AP36">
-        <v>24.72850035667193</v>
-      </c>
-      <c r="AQ36">
-        <v>24.831012266815669</v>
-      </c>
-      <c r="AR36">
-        <v>24.917815804236387</v>
-      </c>
-      <c r="AS36">
-        <v>25.073304890266005</v>
-      </c>
-      <c r="AT36">
-        <v>25.045259624046658</v>
-      </c>
-      <c r="AU36">
-        <v>25.040864146883841</v>
-      </c>
-      <c r="AV36">
-        <v>25.045259624046658</v>
-      </c>
-    </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>14.5</v>
-      </c>
-      <c r="B37">
-        <v>25.868965766541741</v>
-      </c>
-      <c r="C37">
-        <v>25.842744777347445</v>
-      </c>
-      <c r="D37">
-        <v>25.894505666816922</v>
-      </c>
-      <c r="E37">
-        <v>24.867104402320997</v>
-      </c>
-      <c r="F37">
-        <v>24.766708108032333</v>
-      </c>
-      <c r="G37">
-        <v>25.827983772697241</v>
-      </c>
-      <c r="H37">
-        <v>25.903013370936506</v>
-      </c>
-      <c r="I37">
-        <v>25.67825697659271</v>
-      </c>
-      <c r="J37">
-        <v>23.617359315066306</v>
-      </c>
-      <c r="K37">
-        <v>23.607668963671639</v>
-      </c>
-      <c r="L37">
-        <v>22.337169752284485</v>
-      </c>
-      <c r="M37">
-        <v>20.71108767164035</v>
-      </c>
-      <c r="N37">
-        <v>20.295695460793851</v>
-      </c>
-      <c r="O37">
-        <v>21.439706549977604</v>
-      </c>
-      <c r="P37">
-        <v>20.936546588462182</v>
-      </c>
-      <c r="Q37">
-        <v>21.238356730457504</v>
-      </c>
-      <c r="R37">
-        <v>19.963950561797592</v>
-      </c>
-      <c r="S37">
-        <v>19.925284167422618</v>
-      </c>
-      <c r="T37">
-        <v>19.972862945438948</v>
-      </c>
-      <c r="U37">
-        <v>20.076548423724869</v>
-      </c>
-      <c r="V37">
-        <v>20.219976696997421</v>
-      </c>
-      <c r="W37">
-        <v>20.588790763052252</v>
-      </c>
-      <c r="X37">
-        <v>21.05038346605108</v>
-      </c>
-      <c r="Y37">
-        <v>21.265871440775552</v>
-      </c>
-      <c r="Z37">
-        <v>21.454326733626957</v>
-      </c>
-      <c r="AA37">
-        <v>21.794494717703369</v>
-      </c>
-      <c r="AB37">
-        <v>22.06807649071391</v>
-      </c>
-      <c r="AC37">
-        <v>22.369016101651237</v>
-      </c>
-      <c r="AD37">
-        <v>22.512520057115637</v>
-      </c>
-      <c r="AE37">
-        <v>22.945772477218352</v>
-      </c>
-      <c r="AF37">
-        <v>23.262321320546214</v>
-      </c>
-      <c r="AG37">
-        <v>23.101104236576063</v>
-      </c>
-      <c r="AH37">
-        <v>23.486021807427989</v>
-      </c>
-      <c r="AI37">
-        <v>23.921127460532684</v>
-      </c>
-      <c r="AJ37">
-        <v>23.955467158451764</v>
-      </c>
-      <c r="AK37">
-        <v>24.14328695693165</v>
-      </c>
-      <c r="AL37">
-        <v>24.388104908273402</v>
-      </c>
-      <c r="AM37">
-        <v>24.377678036283069</v>
-      </c>
-      <c r="AN37">
-        <v>24.535688292770594</v>
-      </c>
-      <c r="AO37">
-        <v>24.656624921963122</v>
-      </c>
-      <c r="AP37">
-        <v>24.832319017695674</v>
-      </c>
-      <c r="AQ37">
-        <v>24.895714694892604</v>
-      </c>
-      <c r="AR37">
-        <v>24.954874528072956</v>
-      </c>
-      <c r="AS37">
-        <v>25.094735756964337</v>
-      </c>
-      <c r="AT37">
-        <v>25.067704931015815</v>
-      </c>
-      <c r="AU37">
-        <v>25.063985912669768</v>
-      </c>
-      <c r="AV37">
-        <v>25.069057164533415</v>
-      </c>
-    </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>14</v>
-      </c>
-      <c r="B38">
-        <v>25.768197453450252</v>
-      </c>
-      <c r="C38">
-        <v>25.749115502334103</v>
-      </c>
-      <c r="D38">
-        <v>25.801721135601053</v>
-      </c>
-      <c r="E38">
-        <v>24.768418929580193</v>
-      </c>
-      <c r="F38">
-        <v>24.665559602580977</v>
-      </c>
-      <c r="G38">
-        <v>25.764250623091904</v>
-      </c>
-      <c r="H38">
-        <v>25.945836673307841</v>
-      </c>
-      <c r="I38">
-        <v>26.030620821236344</v>
-      </c>
-      <c r="J38">
-        <v>24.234727848653574</v>
-      </c>
-      <c r="K38">
-        <v>23.814964672929527</v>
-      </c>
-      <c r="L38">
-        <v>22.058089718602069</v>
-      </c>
-      <c r="M38">
-        <v>20.78093976766014</v>
-      </c>
-      <c r="N38">
-        <v>21.249925224195458</v>
-      </c>
-      <c r="O38">
-        <v>23.437620056189687</v>
-      </c>
-      <c r="P38">
-        <v>24.084948531452415</v>
-      </c>
-      <c r="Q38">
-        <v>25.175990714857207</v>
-      </c>
-      <c r="R38">
-        <v>24.601570846911244</v>
-      </c>
-      <c r="S38">
-        <v>24.745826561329284</v>
-      </c>
-      <c r="T38">
-        <v>24.813200423448752</v>
-      </c>
-      <c r="U38">
-        <v>24.81388348403615</v>
-      </c>
-      <c r="V38">
-        <v>24.805685515589065</v>
-      </c>
-      <c r="W38">
-        <v>24.904903880323161</v>
-      </c>
-      <c r="X38">
-        <v>25.036583402584633</v>
-      </c>
-      <c r="Y38">
-        <v>24.971848556704469</v>
-      </c>
-      <c r="Z38">
-        <v>24.918171165582919</v>
-      </c>
-      <c r="AA38">
-        <v>24.957251587057037</v>
-      </c>
-      <c r="AB38">
-        <v>24.966757559820365</v>
-      </c>
-      <c r="AC38">
-        <v>24.97931347525218</v>
-      </c>
-      <c r="AD38">
-        <v>24.837096366769675</v>
-      </c>
-      <c r="AE38">
-        <v>24.995253786757335</v>
-      </c>
-      <c r="AF38">
-        <v>25.055193311255987</v>
-      </c>
-      <c r="AG38">
-        <v>24.686165754547972</v>
-      </c>
-      <c r="AH38">
-        <v>24.84869467635361</v>
-      </c>
-      <c r="AI38">
-        <v>24.963362985091248</v>
-      </c>
-      <c r="AJ38">
-        <v>24.902181512224921</v>
-      </c>
-      <c r="AK38">
-        <v>24.914089676461789</v>
-      </c>
-      <c r="AL38">
-        <v>24.993219419457603</v>
-      </c>
-      <c r="AM38">
-        <v>24.885500509196522</v>
-      </c>
-      <c r="AN38">
-        <v>24.859946684426788</v>
-      </c>
-      <c r="AO38">
-        <v>24.812517344057465</v>
-      </c>
-      <c r="AP38">
-        <v>24.883457168929848</v>
-      </c>
-      <c r="AQ38">
-        <v>24.891969980126632</v>
-      </c>
-      <c r="AR38">
-        <v>24.920211659465142</v>
-      </c>
-      <c r="AS38">
-        <v>25.039291157996374</v>
-      </c>
-      <c r="AT38">
-        <v>24.991184886553466</v>
-      </c>
-      <c r="AU38">
-        <v>24.983045098083647</v>
-      </c>
-      <c r="AV38">
-        <v>24.98745447931686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>13.5</v>
-      </c>
-      <c r="B39">
-        <v>25.777404374203126</v>
-      </c>
-      <c r="C39">
-        <v>25.759645223370182</v>
-      </c>
-      <c r="D39">
-        <v>25.809274380884801</v>
-      </c>
-      <c r="E39">
-        <v>24.774576908939316</v>
-      </c>
-      <c r="F39">
-        <v>24.678268763277185</v>
-      </c>
-      <c r="G39">
-        <v>25.775760522406987</v>
-      </c>
-      <c r="H39">
-        <v>25.957592534160245</v>
-      </c>
-      <c r="I39">
-        <v>26.081683942723785</v>
-      </c>
-      <c r="J39">
-        <v>24.72321354791066</v>
-      </c>
-      <c r="K39">
-        <v>25.73495940531518</v>
-      </c>
-      <c r="L39">
-        <v>25.716511875657776</v>
-      </c>
-      <c r="M39">
-        <v>24.700579832623298</v>
-      </c>
-      <c r="N39">
-        <v>24.630833646096814</v>
-      </c>
-      <c r="O39">
-        <v>25.824702403653912</v>
-      </c>
-      <c r="P39">
-        <v>25.565469296278977</v>
-      </c>
-      <c r="Q39">
-        <v>25.922635877693025</v>
-      </c>
-      <c r="R39">
-        <v>24.865059550314331</v>
-      </c>
-      <c r="S39">
-        <v>24.630145509042578</v>
-      </c>
-      <c r="T39">
-        <v>24.176960597412027</v>
-      </c>
-      <c r="U39">
-        <v>23.421343301226305</v>
-      </c>
-      <c r="V39">
-        <v>22.303758138902154</v>
-      </c>
-      <c r="W39">
-        <v>21.514677685993892</v>
-      </c>
-      <c r="X39">
-        <v>21.160804829139867</v>
-      </c>
-      <c r="Y39">
-        <v>21.216399157735012</v>
-      </c>
-      <c r="Z39">
-        <v>21.724000630404856</v>
-      </c>
-      <c r="AA39">
-        <v>22.832848772127569</v>
-      </c>
-      <c r="AB39">
-        <v>23.719404914363373</v>
-      </c>
-      <c r="AC39">
-        <v>24.401653181006029</v>
-      </c>
-      <c r="AD39">
-        <v>24.609836809629808</v>
-      </c>
-      <c r="AE39">
-        <v>24.924292146078109</v>
-      </c>
-      <c r="AF39">
-        <v>25.037598845180888</v>
-      </c>
-      <c r="AG39">
-        <v>24.682389247863565</v>
-      </c>
-      <c r="AH39">
-        <v>24.860287574866966</v>
-      </c>
-      <c r="AI39">
-        <v>24.899118492326494</v>
-      </c>
-      <c r="AJ39">
-        <v>24.921231843754626</v>
-      </c>
-      <c r="AK39">
-        <v>24.934490441140401</v>
-      </c>
-      <c r="AL39">
-        <v>25.006100950483319</v>
-      </c>
-      <c r="AM39">
-        <v>24.901500873696587</v>
-      </c>
-      <c r="AN39">
-        <v>24.878007441057015</v>
-      </c>
-      <c r="AO39">
-        <v>24.835731503662902</v>
-      </c>
-      <c r="AP39">
-        <v>24.907285708321012</v>
-      </c>
-      <c r="AQ39">
-        <v>24.908646650633223</v>
-      </c>
-      <c r="AR39">
-        <v>24.940947204499412</v>
-      </c>
-      <c r="AS39">
-        <v>25.056884435761734</v>
-      </c>
-      <c r="AT39">
-        <v>25.016604655200041</v>
-      </c>
-      <c r="AU39">
-        <v>25.004067465724621</v>
-      </c>
-      <c r="AV39">
-        <v>25.013216845283065</v>
-      </c>
-    </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>13</v>
-      </c>
-      <c r="B40">
-        <v>25.704975446630257</v>
-      </c>
-      <c r="C40">
-        <v>25.684526767184895</v>
-      </c>
-      <c r="D40">
-        <v>25.736276580022018</v>
-      </c>
-      <c r="E40">
-        <v>24.699893638692291</v>
-      </c>
-      <c r="F40">
-        <v>24.599503922240768</v>
-      </c>
-      <c r="G40">
-        <v>25.699370169687896</v>
-      </c>
-      <c r="H40">
-        <v>25.888941425550666</v>
-      </c>
-      <c r="I40">
-        <v>26.008147354503347</v>
-      </c>
-      <c r="J40">
-        <v>24.651468825492678</v>
-      </c>
-      <c r="K40">
-        <v>25.650849921492178</v>
-      </c>
-      <c r="L40">
-        <v>25.648206730190246</v>
-      </c>
-      <c r="M40">
-        <v>24.628769177253677</v>
-      </c>
-      <c r="N40">
-        <v>24.556403424617017</v>
-      </c>
-      <c r="O40">
-        <v>25.750102846594022</v>
-      </c>
-      <c r="P40">
-        <v>25.487451216069555</v>
-      </c>
-      <c r="Q40">
-        <v>25.854547513322373</v>
-      </c>
-      <c r="R40">
-        <v>24.836072726471397</v>
-      </c>
-      <c r="S40">
-        <v>24.680672462887614</v>
-      </c>
-      <c r="T40">
-        <v>24.390189747769561</v>
-      </c>
-      <c r="U40">
-        <v>23.804286752528633</v>
-      </c>
-      <c r="V40">
-        <v>22.831364095048677</v>
-      </c>
-      <c r="W40">
-        <v>21.912383311107021</v>
-      </c>
-      <c r="X40">
-        <v>21.258697123526421</v>
-      </c>
-      <c r="Y40">
-        <v>20.953540212995684</v>
-      </c>
-      <c r="Z40">
-        <v>21.269059249433958</v>
-      </c>
-      <c r="AA40">
-        <v>22.254689088834244</v>
-      </c>
-      <c r="AB40">
-        <v>23.249202647162196</v>
-      </c>
-      <c r="AC40">
-        <v>24.090929441512468</v>
-      </c>
-      <c r="AD40">
-        <v>24.42144098248539</v>
-      </c>
-      <c r="AE40">
-        <v>24.819347291981714</v>
-      </c>
-      <c r="AF40">
-        <v>24.945364027022695</v>
-      </c>
-      <c r="AG40">
-        <v>24.602259783212556</v>
-      </c>
-      <c r="AH40">
-        <v>24.771498110612281</v>
-      </c>
-      <c r="AI40">
-        <v>24.884819414416807</v>
-      </c>
-      <c r="AJ40">
-        <v>24.822761561224887</v>
-      </c>
-      <c r="AK40">
-        <v>24.847330450341634</v>
-      </c>
-      <c r="AL40">
-        <v>24.918511259500047</v>
-      </c>
-      <c r="AM40">
-        <v>24.804660579025828</v>
-      </c>
-      <c r="AN40">
-        <v>24.782785167893582</v>
-      </c>
-      <c r="AO40">
-        <v>24.741374117464435</v>
-      </c>
-      <c r="AP40">
-        <v>24.809784838422392</v>
-      </c>
-      <c r="AQ40">
-        <v>24.816957024022976</v>
-      </c>
-      <c r="AR40">
-        <v>24.852104913750622</v>
-      </c>
-      <c r="AS40">
-        <v>24.956232875216443</v>
-      </c>
-      <c r="AT40">
-        <v>24.918851348775547</v>
-      </c>
-      <c r="AU40">
-        <v>24.906605209278268</v>
-      </c>
-      <c r="AV40">
-        <v>24.913749522186283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>12.5</v>
-      </c>
-      <c r="B41">
-        <v>25.763592759248599</v>
-      </c>
-      <c r="C41">
-        <v>25.742203032163985</v>
-      </c>
-      <c r="D41">
-        <v>25.791208592812513</v>
-      </c>
-      <c r="E41">
-        <v>24.759863639721992</v>
-      </c>
-      <c r="F41">
-        <v>24.664528843074372</v>
-      </c>
-      <c r="G41">
-        <v>25.761948026143031</v>
-      </c>
-      <c r="H41">
-        <v>25.945183413745244</v>
-      </c>
-      <c r="I41">
-        <v>26.064457258945367</v>
-      </c>
-      <c r="J41">
-        <v>24.709841585620104</v>
-      </c>
-      <c r="K41">
-        <v>25.711897925187365</v>
-      </c>
-      <c r="L41">
-        <v>25.705305130739195</v>
-      </c>
-      <c r="M41">
-        <v>24.688568685300766</v>
-      </c>
-      <c r="N41">
-        <v>24.611214200172647</v>
-      </c>
-      <c r="O41">
-        <v>25.807960931806047</v>
-      </c>
-      <c r="P41">
-        <v>25.548226247760912</v>
-      </c>
-      <c r="Q41">
-        <v>25.918712564804395</v>
-      </c>
-      <c r="R41">
-        <v>24.918511259500047</v>
-      </c>
-      <c r="S41">
-        <v>24.810467993044757</v>
-      </c>
-      <c r="T41">
-        <v>24.654218877802158</v>
-      </c>
-      <c r="U41">
-        <v>24.24032219957035</v>
-      </c>
-      <c r="V41">
-        <v>23.428578810605348</v>
-      </c>
-      <c r="W41">
-        <v>22.518165924652244</v>
-      </c>
-      <c r="X41">
-        <v>21.619592495258022</v>
-      </c>
-      <c r="Y41">
-        <v>20.994753178281215</v>
-      </c>
-      <c r="Z41">
-        <v>21.036691110565748</v>
-      </c>
-      <c r="AA41">
-        <v>21.935575933296661</v>
-      </c>
-      <c r="AB41">
-        <v>23.002210652788445</v>
-      </c>
-      <c r="AC41">
-        <v>23.94662143113516</v>
-      </c>
-      <c r="AD41">
-        <v>24.398527324271448</v>
-      </c>
-      <c r="AE41">
-        <v>24.854491801520798</v>
-      </c>
-      <c r="AF41">
-        <v>25.009150867605321</v>
-      </c>
-      <c r="AG41">
-        <v>24.665903179511123</v>
-      </c>
-      <c r="AH41">
-        <v>24.814225007278878</v>
-      </c>
-      <c r="AI41">
-        <v>24.932451115846348</v>
-      </c>
-      <c r="AJ41">
-        <v>24.867104402320997</v>
-      </c>
-      <c r="AK41">
-        <v>24.883457168929848</v>
-      </c>
-      <c r="AL41">
-        <v>24.959288886002248</v>
-      </c>
-      <c r="AM41">
-        <v>24.841872797110057</v>
-      </c>
-      <c r="AN41">
-        <v>24.823102962320529</v>
-      </c>
-      <c r="AO41">
-        <v>24.78346906676002</v>
-      </c>
-      <c r="AP41">
-        <v>24.851763911069281</v>
-      </c>
-      <c r="AQ41">
-        <v>24.857901243614439</v>
-      </c>
-      <c r="AR41">
-        <v>24.891629523576455</v>
-      </c>
-      <c r="AS41">
-        <v>25.000338980752687</v>
-      </c>
-      <c r="AT41">
-        <v>24.960646992918367</v>
-      </c>
-      <c r="AU41">
-        <v>24.947402296750901</v>
-      </c>
-      <c r="AV41">
-        <v>24.956912021063797</v>
-      </c>
-    </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>12</v>
-      </c>
-      <c r="B42">
-        <v>25.70926101028412</v>
-      </c>
-      <c r="C42">
-        <v>25.6888157422114</v>
-      </c>
-      <c r="D42">
-        <v>25.735618001095389</v>
-      </c>
-      <c r="E42">
-        <v>24.706754720390926</v>
-      </c>
-      <c r="F42">
-        <v>24.603637597941638</v>
-      </c>
-      <c r="G42">
-        <v>25.70266753946111</v>
-      </c>
-      <c r="H42">
-        <v>25.891887349292915</v>
-      </c>
-      <c r="I42">
-        <v>26.004562833002851</v>
-      </c>
-      <c r="J42">
-        <v>24.659030731360254</v>
-      </c>
-      <c r="K42">
-        <v>25.652501777753123</v>
-      </c>
-      <c r="L42">
-        <v>25.653162490474969</v>
-      </c>
-      <c r="M42">
-        <v>24.633930024958996</v>
-      </c>
-      <c r="N42">
-        <v>24.560889400337139</v>
-      </c>
-      <c r="O42">
-        <v>25.758329243639402</v>
-      </c>
-      <c r="P42">
-        <v>25.493103088575658</v>
-      </c>
-      <c r="Q42">
-        <v>25.85782509500882</v>
-      </c>
-      <c r="R42">
-        <v>24.859946684426788</v>
-      </c>
-      <c r="S42">
-        <v>24.776971265365461</v>
-      </c>
-      <c r="T42">
-        <v>24.706754720390926</v>
-      </c>
-      <c r="U42">
-        <v>24.455424686767753</v>
-      </c>
-      <c r="V42">
-        <v>23.843060320011961</v>
-      </c>
-      <c r="W42">
-        <v>23.01583831971632</v>
-      </c>
-      <c r="X42">
-        <v>22.04579209628319</v>
-      </c>
-      <c r="Y42">
-        <v>21.158001251279682</v>
-      </c>
-      <c r="Z42">
-        <v>20.897246595047811</v>
-      </c>
-      <c r="AA42">
-        <v>21.604299634838071</v>
-      </c>
-      <c r="AB42">
-        <v>22.674184529279032</v>
-      </c>
-      <c r="AC42">
-        <v>23.720119472646218</v>
-      </c>
-      <c r="AD42">
-        <v>24.231230723446167</v>
-      </c>
-      <c r="AE42">
-        <v>24.767392450832595</v>
-      </c>
-      <c r="AF42">
-        <v>24.950119730700116</v>
-      </c>
-      <c r="AG42">
-        <v>24.604326476372652</v>
-      </c>
-      <c r="AH42">
-        <v>24.768761079709435</v>
-      </c>
-      <c r="AI42">
-        <v>24.888224701925996</v>
-      </c>
-      <c r="AJ42">
-        <v>24.82549263853112</v>
-      </c>
-      <c r="AK42">
-        <v>24.835731503662902</v>
-      </c>
-      <c r="AL42">
-        <v>24.913749522186283</v>
-      </c>
-      <c r="AM42">
-        <v>24.792358035272734</v>
-      </c>
-      <c r="AN42">
-        <v>24.774576908939316</v>
-      </c>
-      <c r="AO42">
-        <v>24.735550481586593</v>
-      </c>
-      <c r="AP42">
-        <v>24.807735261679156</v>
-      </c>
-      <c r="AQ42">
-        <v>24.81388348403615</v>
-      </c>
-      <c r="AR42">
-        <v>24.847671513866583</v>
-      </c>
-      <c r="AS42">
-        <v>24.954195326773807</v>
-      </c>
-      <c r="AT42">
-        <v>24.915790378181693</v>
-      </c>
-      <c r="AU42">
-        <v>24.903542733474008</v>
-      </c>
-      <c r="AV42">
-        <v>24.910687924691199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>11.5</v>
-      </c>
-      <c r="B43">
-        <v>25.732324853632665</v>
-      </c>
-      <c r="C43">
-        <v>25.713216281232182</v>
-      </c>
-      <c r="D43">
-        <v>25.759974207798439</v>
-      </c>
-      <c r="E43">
-        <v>24.726983819575718</v>
-      </c>
-      <c r="F43">
-        <v>24.631865815632445</v>
-      </c>
-      <c r="G43">
-        <v>25.730019399625114</v>
-      </c>
-      <c r="H43">
-        <v>25.913807588403785</v>
-      </c>
-      <c r="I43">
-        <v>26.030620821236344</v>
-      </c>
-      <c r="J43">
-        <v>24.67964233457835</v>
-      </c>
-      <c r="K43">
-        <v>25.67825697659271</v>
-      </c>
-      <c r="L43">
-        <v>25.670995305986871</v>
-      </c>
-      <c r="M43">
-        <v>24.655250068336429</v>
-      </c>
-      <c r="N43">
-        <v>24.586064676380939</v>
-      </c>
-      <c r="O43">
-        <v>25.779376857993306</v>
-      </c>
-      <c r="P43">
-        <v>25.520015408315842</v>
-      </c>
-      <c r="Q43">
-        <v>25.887304656392512</v>
-      </c>
-      <c r="R43">
-        <v>24.892650879257722</v>
-      </c>
-      <c r="S43">
-        <v>24.811492689709851</v>
-      </c>
-      <c r="T43">
-        <v>24.777313297395423</v>
-      </c>
-      <c r="U43">
-        <v>24.650093684285824</v>
-      </c>
-      <c r="V43">
-        <v>24.2049861791368</v>
-      </c>
-      <c r="W43">
-        <v>23.506940915109322</v>
-      </c>
-      <c r="X43">
-        <v>22.556520347107874</v>
-      </c>
-      <c r="Y43">
-        <v>21.484326174828958</v>
-      </c>
-      <c r="Z43">
-        <v>20.995964099668686</v>
-      </c>
-      <c r="AA43">
-        <v>21.565430591809882</v>
-      </c>
-      <c r="AB43">
-        <v>22.65848140677166</v>
-      </c>
-      <c r="AC43">
-        <v>23.718690334553482</v>
-      </c>
-      <c r="AD43">
-        <v>24.278050350338251</v>
-      </c>
-      <c r="AE43">
-        <v>24.808760071216508</v>
-      </c>
-      <c r="AF43">
-        <v>24.976259914607589</v>
-      </c>
-      <c r="AG43">
-        <v>24.632553904628054</v>
-      </c>
-      <c r="AH43">
-        <v>24.822078744946783</v>
-      </c>
-      <c r="AI43">
-        <v>24.913749522186283</v>
-      </c>
-      <c r="AJ43">
-        <v>24.879369984938478</v>
-      </c>
-      <c r="AK43">
-        <v>24.895033879559328</v>
-      </c>
-      <c r="AL43">
-        <v>24.970830440362931</v>
-      </c>
-      <c r="AM43">
-        <v>24.859946684426788</v>
-      </c>
-      <c r="AN43">
-        <v>24.837778770197794</v>
-      </c>
-      <c r="AO43">
-        <v>24.790990709106062</v>
-      </c>
-      <c r="AP43">
-        <v>24.865741186334319</v>
-      </c>
-      <c r="AQ43">
-        <v>24.866763605330505</v>
-      </c>
-      <c r="AR43">
-        <v>24.898778133522395</v>
-      </c>
-      <c r="AS43">
-        <v>25.012200412829046</v>
-      </c>
-      <c r="AT43">
-        <v>24.972866631538523</v>
-      </c>
-      <c r="AU43">
-        <v>24.961665524614176</v>
-      </c>
-      <c r="AV43">
-        <v>24.970491059024322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44">
-        <v>25.789565620910608</v>
-      </c>
-      <c r="C44">
-        <v>25.770170641950632</v>
-      </c>
-      <c r="D44">
-        <v>25.816168892211458</v>
-      </c>
-      <c r="E44">
-        <v>24.787230173236722</v>
-      </c>
-      <c r="F44">
-        <v>24.689941683588138</v>
-      </c>
-      <c r="G44">
-        <v>25.789565620910608</v>
-      </c>
-      <c r="H44">
-        <v>25.972279877475106</v>
-      </c>
-      <c r="I44">
-        <v>26.090780240524087</v>
-      </c>
-      <c r="J44">
-        <v>24.736235686381292</v>
-      </c>
-      <c r="K44">
-        <v>25.73858147356195</v>
-      </c>
-      <c r="L44">
-        <v>25.727713739026406</v>
-      </c>
-      <c r="M44">
-        <v>24.716699905879185</v>
-      </c>
-      <c r="N44">
-        <v>24.645623945459711</v>
-      </c>
-      <c r="O44">
-        <v>25.835857358015602</v>
-      </c>
-      <c r="P44">
-        <v>25.575743274982191</v>
-      </c>
-      <c r="Q44">
-        <v>25.9464899164232</v>
-      </c>
-      <c r="R44">
-        <v>24.945024299209162</v>
-      </c>
-      <c r="S44">
-        <v>24.869830610124215</v>
-      </c>
-      <c r="T44">
-        <v>24.855514683254732</v>
-      </c>
-      <c r="U44">
-        <v>24.787230173236722</v>
-      </c>
-      <c r="V44">
-        <v>24.52428751189526</v>
-      </c>
-      <c r="W44">
-        <v>23.990464207291947</v>
-      </c>
-      <c r="X44">
-        <v>23.095967804219839</v>
-      </c>
-      <c r="Y44">
-        <v>21.895359774642138</v>
-      </c>
-      <c r="Z44">
-        <v>21.205212023206762</v>
-      </c>
-      <c r="AA44">
-        <v>21.56896703560583</v>
-      </c>
-      <c r="AB44">
-        <v>22.637901322145268</v>
-      </c>
-      <c r="AC44">
-        <v>23.737262418371753</v>
-      </c>
-      <c r="AD44">
-        <v>24.36028999855214</v>
-      </c>
-      <c r="AE44">
-        <v>24.896735882985116</v>
-      </c>
-      <c r="AF44">
-        <v>25.049780945623635</v>
-      </c>
-      <c r="AG44">
-        <v>24.702638300049063</v>
-      </c>
-      <c r="AH44">
-        <v>24.857560320448702</v>
-      </c>
-      <c r="AI44">
-        <v>24.993897560289337</v>
-      </c>
-      <c r="AJ44">
-        <v>24.911028120772098</v>
-      </c>
-      <c r="AK44">
-        <v>24.924972162233917</v>
-      </c>
-      <c r="AL44">
-        <v>24.998305027287113</v>
-      </c>
-      <c r="AM44">
-        <v>24.887884194141876</v>
-      </c>
-      <c r="AN44">
-        <v>24.861991956957041</v>
-      </c>
-      <c r="AO44">
-        <v>24.822078744946783</v>
-      </c>
-      <c r="AP44">
-        <v>24.890948596505886</v>
-      </c>
-      <c r="AQ44">
-        <v>24.89299132183902</v>
-      </c>
-      <c r="AR44">
-        <v>24.926332138890896</v>
-      </c>
-      <c r="AS44">
-        <v>25.038952704583568</v>
-      </c>
-      <c r="AT44">
-        <v>25.001355895434344</v>
-      </c>
-      <c r="AU44">
-        <v>24.987793630260246</v>
-      </c>
-      <c r="AV44">
-        <v>24.998305027287113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>10.5</v>
-      </c>
-      <c r="B45">
-        <v>25.7632638210275</v>
-      </c>
-      <c r="C45">
-        <v>25.743190641542078</v>
-      </c>
-      <c r="D45">
-        <v>25.791537174633632</v>
-      </c>
-      <c r="E45">
-        <v>24.758152226992127</v>
-      </c>
-      <c r="F45">
-        <v>24.660749022949027</v>
-      </c>
-      <c r="G45">
-        <v>25.766553014271974</v>
-      </c>
-      <c r="H45">
-        <v>25.941916869180229</v>
-      </c>
-      <c r="I45">
-        <v>26.057953663949561</v>
-      </c>
-      <c r="J45">
-        <v>24.707783718318129</v>
-      </c>
-      <c r="K45">
-        <v>25.714864131240041</v>
-      </c>
-      <c r="L45">
-        <v>25.704316065726776</v>
-      </c>
-      <c r="M45">
-        <v>24.691657824084938</v>
-      </c>
-      <c r="N45">
-        <v>24.620165360388654</v>
-      </c>
-      <c r="O45">
-        <v>25.807960931806047</v>
-      </c>
-      <c r="P45">
-        <v>25.547894536619594</v>
-      </c>
-      <c r="Q45">
-        <v>25.92198203344746</v>
-      </c>
-      <c r="R45">
-        <v>24.920551725535386</v>
-      </c>
-      <c r="S45">
-        <v>24.846307231676249</v>
-      </c>
-      <c r="T45">
-        <v>24.830953891996188</v>
-      </c>
-      <c r="U45">
-        <v>24.808418472741145</v>
-      </c>
-      <c r="V45">
-        <v>24.673804128457608</v>
-      </c>
-      <c r="W45">
-        <v>24.32025033323437</v>
-      </c>
-      <c r="X45">
-        <v>23.540084817611408</v>
-      </c>
-      <c r="Y45">
-        <v>22.331857612092634</v>
-      </c>
-      <c r="Z45">
-        <v>21.449586144322502</v>
-      </c>
-      <c r="AA45">
-        <v>21.509950397471748</v>
-      </c>
-      <c r="AB45">
-        <v>22.441260425642884</v>
-      </c>
-      <c r="AC45">
-        <v>23.612335184842603</v>
-      </c>
-      <c r="AD45">
-        <v>24.307702622412943</v>
-      </c>
-      <c r="AE45">
-        <v>24.865400370660041</v>
-      </c>
-      <c r="AF45">
-        <v>25.018298388125604</v>
-      </c>
-      <c r="AG45">
-        <v>24.671743255275604</v>
-      </c>
-      <c r="AH45">
-        <v>24.788939578443625</v>
-      </c>
-      <c r="AI45">
-        <v>24.941626766566607</v>
-      </c>
-      <c r="AJ45">
-        <v>24.842896198419052</v>
-      </c>
-      <c r="AK45">
-        <v>24.854832766776099</v>
-      </c>
-      <c r="AL45">
-        <v>24.933130909477704</v>
-      </c>
-      <c r="AM45">
-        <v>24.818664381769526</v>
-      </c>
-      <c r="AN45">
-        <v>24.799535260817741</v>
-      </c>
-      <c r="AO45">
-        <v>24.755413720529422</v>
-      </c>
-      <c r="AP45">
-        <v>24.82549263853112</v>
-      </c>
-      <c r="AQ45">
-        <v>24.827199409286475</v>
-      </c>
-      <c r="AR45">
-        <v>24.863355378507666</v>
-      </c>
-      <c r="AS45">
-        <v>24.974224000092168</v>
-      </c>
-      <c r="AT45">
-        <v>24.935849898679844</v>
-      </c>
-      <c r="AU45">
-        <v>24.919871588754223</v>
-      </c>
-      <c r="AV45">
-        <v>24.934150565174257</v>
-      </c>
-    </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>10</v>
-      </c>
-      <c r="B46">
-        <v>25.813870926371926</v>
-      </c>
-      <c r="C46">
-        <v>25.793837130181021</v>
-      </c>
-      <c r="D46">
-        <v>25.843400626314708</v>
-      </c>
-      <c r="E46">
-        <v>24.813200423448752</v>
-      </c>
-      <c r="F46">
-        <v>24.717728489788769</v>
-      </c>
-      <c r="G46">
-        <v>25.818466653521138</v>
-      </c>
-      <c r="H46">
-        <v>25.993154248698065</v>
-      </c>
-      <c r="I46">
-        <v>26.11058620300216</v>
-      </c>
-      <c r="J46">
-        <v>24.758836806279895</v>
-      </c>
-      <c r="K46">
-        <v>25.7688551997384</v>
-      </c>
-      <c r="L46">
-        <v>25.756355147972211</v>
-      </c>
-      <c r="M46">
-        <v>24.743086690691015</v>
-      </c>
-      <c r="N46">
-        <v>24.666933881588204</v>
-      </c>
-      <c r="O46">
-        <v>25.859463730069493</v>
-      </c>
-      <c r="P46">
-        <v>25.600913648950442</v>
-      </c>
-      <c r="Q46">
-        <v>25.976847579517642</v>
-      </c>
-      <c r="R46">
-        <v>24.97931347525218</v>
-      </c>
-      <c r="S46">
-        <v>24.898097401956001</v>
-      </c>
-      <c r="T46">
-        <v>24.887203164597107</v>
-      </c>
-      <c r="U46">
-        <v>24.866081997337361</v>
-      </c>
-      <c r="V46">
-        <v>24.816957024022976</v>
-      </c>
-      <c r="W46">
-        <v>24.65799969893224</v>
-      </c>
-      <c r="X46">
-        <v>24.038105342862949</v>
-      </c>
-      <c r="Y46">
-        <v>22.774874648485714</v>
-      </c>
-      <c r="Z46">
-        <v>21.739599110644278</v>
-      </c>
-      <c r="AA46">
-        <v>21.814705038854029</v>
-      </c>
-      <c r="AB46">
-        <v>22.831735273369397</v>
-      </c>
-      <c r="AC46">
-        <v>23.989404440788622</v>
-      </c>
-      <c r="AD46">
-        <v>24.56951397462214</v>
-      </c>
-      <c r="AE46">
-        <v>24.988811055472443</v>
-      </c>
-      <c r="AF46">
-        <v>25.090682989535299</v>
-      </c>
-      <c r="AG46">
-        <v>24.729725474293044</v>
-      </c>
-      <c r="AH46">
-        <v>24.869830610124215</v>
-      </c>
-      <c r="AI46">
-        <v>24.998983030162908</v>
-      </c>
-      <c r="AJ46">
-        <v>24.923272087055981</v>
-      </c>
-      <c r="AK46">
-        <v>24.934830312473842</v>
-      </c>
-      <c r="AL46">
-        <v>25.008812006292935</v>
-      </c>
-      <c r="AM46">
-        <v>24.900139540824714</v>
-      </c>
-      <c r="AN46">
-        <v>24.878688722325638</v>
-      </c>
-      <c r="AO46">
-        <v>24.837437570827348</v>
-      </c>
-      <c r="AP46">
-        <v>24.906945461123687</v>
-      </c>
-      <c r="AQ46">
-        <v>24.908306422026357</v>
-      </c>
-      <c r="AR46">
-        <v>24.941626766566607</v>
-      </c>
-      <c r="AS46">
-        <v>25.05891363452081</v>
-      </c>
-      <c r="AT46">
-        <v>25.021685510027336</v>
-      </c>
-      <c r="AU46">
-        <v>25.002033815576969</v>
-      </c>
-      <c r="AV46">
-        <v>25.013216845283065</v>
-      </c>
-    </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>9.5</v>
-      </c>
-      <c r="B47">
-        <v>25.615474666163838</v>
-      </c>
-      <c r="C47">
-        <v>25.588993926481194</v>
-      </c>
-      <c r="D47">
-        <v>25.639614476596069</v>
-      </c>
-      <c r="E47">
-        <v>24.60467090835548</v>
-      </c>
-      <c r="F47">
-        <v>24.500086475115463</v>
-      </c>
-      <c r="G47">
-        <v>25.60786425816114</v>
-      </c>
-      <c r="H47">
-        <v>25.796465399714052</v>
-      </c>
-      <c r="I47">
-        <v>25.903340534522911</v>
-      </c>
-      <c r="J47">
-        <v>24.550881098483298</v>
-      </c>
-      <c r="K47">
-        <v>25.553864678361276</v>
-      </c>
-      <c r="L47">
-        <v>25.553533040412585</v>
-      </c>
-      <c r="M47">
-        <v>24.529124853970941</v>
-      </c>
-      <c r="N47">
-        <v>24.45750378770131</v>
-      </c>
-      <c r="O47">
-        <v>25.656465798861223</v>
-      </c>
-      <c r="P47">
-        <v>25.391176900781492</v>
-      </c>
-      <c r="Q47">
-        <v>25.75438090098887</v>
-      </c>
-      <c r="R47">
-        <v>24.766708108032333</v>
-      </c>
-      <c r="S47">
-        <v>24.691314605527843</v>
-      </c>
-      <c r="T47">
-        <v>24.670025729445953</v>
-      </c>
-      <c r="U47">
-        <v>24.661092666899894</v>
-      </c>
-      <c r="V47">
-        <v>24.651468825492678</v>
-      </c>
-      <c r="W47">
-        <v>24.651125047382621</v>
-      </c>
-      <c r="X47">
-        <v>24.323037834356246</v>
-      </c>
-      <c r="Y47">
-        <v>23.141788454684221</v>
-      </c>
-      <c r="Z47">
-        <v>21.904646980082418</v>
-      </c>
-      <c r="AA47">
-        <v>21.605476393023405</v>
-      </c>
-      <c r="AB47">
-        <v>22.535847150255101</v>
-      </c>
-      <c r="AC47">
-        <v>23.804642760376652</v>
-      </c>
-      <c r="AD47">
-        <v>24.423522976349485</v>
-      </c>
-      <c r="AE47">
-        <v>24.805685515589065</v>
-      </c>
-      <c r="AF47">
-        <v>24.877666793426304</v>
-      </c>
-      <c r="AG47">
-        <v>24.51080702500326</v>
-      </c>
-      <c r="AH47">
-        <v>24.656968623391549</v>
-      </c>
-      <c r="AI47">
-        <v>24.776629228613874</v>
-      </c>
-      <c r="AJ47">
-        <v>24.688911942030899</v>
-      </c>
-      <c r="AK47">
-        <v>24.6920010378713</v>
-      </c>
-      <c r="AL47">
-        <v>24.78449487967584</v>
-      </c>
-      <c r="AM47">
-        <v>24.654906342950504</v>
-      </c>
-      <c r="AN47">
-        <v>24.639433737715123</v>
-      </c>
-      <c r="AO47">
-        <v>24.601226371525687</v>
-      </c>
-      <c r="AP47">
-        <v>24.668995156550224</v>
-      </c>
-      <c r="AQ47">
-        <v>24.681359191207925</v>
-      </c>
-      <c r="AR47">
-        <v>24.710527503303634</v>
-      </c>
-      <c r="AS47">
-        <v>24.81388348403615</v>
-      </c>
-      <c r="AT47">
-        <v>24.771155998288119</v>
-      </c>
-      <c r="AU47">
-        <v>24.770129632965151</v>
-      </c>
-      <c r="AV47">
-        <v>24.767050281796116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>9</v>
-      </c>
-      <c r="B48">
-        <v>25.751419246719959</v>
-      </c>
-      <c r="C48">
-        <v>25.730678121848431</v>
-      </c>
-      <c r="D48">
-        <v>25.779376857993306</v>
-      </c>
-      <c r="E48">
-        <v>24.740689054980951</v>
-      </c>
-      <c r="F48">
-        <v>24.654218877802158</v>
-      </c>
-      <c r="G48">
-        <v>25.746811551816389</v>
-      </c>
-      <c r="H48">
-        <v>25.931461161417452</v>
-      </c>
-      <c r="I48">
-        <v>26.045266982762719</v>
-      </c>
-      <c r="J48">
-        <v>24.693717035249051</v>
-      </c>
-      <c r="K48">
-        <v>25.702337821519766</v>
-      </c>
-      <c r="L48">
-        <v>25.687826042303794</v>
-      </c>
-      <c r="M48">
-        <v>24.677581948956377</v>
-      </c>
-      <c r="N48">
-        <v>24.601915317473466</v>
-      </c>
-      <c r="O48">
-        <v>25.795479830020934</v>
-      </c>
-      <c r="P48">
-        <v>25.531967333760306</v>
-      </c>
-      <c r="Q48">
-        <v>25.903667693977237</v>
-      </c>
-      <c r="R48">
-        <v>24.911368312207191</v>
-      </c>
-      <c r="S48">
-        <v>24.836413944591897</v>
-      </c>
-      <c r="T48">
-        <v>24.815591053247832</v>
-      </c>
-      <c r="U48">
-        <v>24.794750674627668</v>
-      </c>
-      <c r="V48">
-        <v>24.793041670078267</v>
-      </c>
-      <c r="W48">
-        <v>24.867445194641018</v>
-      </c>
-      <c r="X48">
-        <v>24.82480989737239</v>
-      </c>
-      <c r="Y48">
-        <v>23.963602343724027</v>
-      </c>
-      <c r="Z48">
-        <v>22.654740963771651</v>
-      </c>
-      <c r="AA48">
-        <v>21.752069841118143</v>
-      </c>
-      <c r="AB48">
-        <v>22.332237092582599</v>
-      </c>
-      <c r="AC48">
-        <v>23.632425297115166</v>
-      </c>
-      <c r="AD48">
-        <v>24.436704818221326</v>
-      </c>
-      <c r="AE48">
-        <v>24.928371964762547</v>
-      </c>
-      <c r="AF48">
-        <v>25.025410814623562</v>
-      </c>
-      <c r="AG48">
-        <v>24.660061720681007</v>
-      </c>
-      <c r="AH48">
-        <v>24.802268895665197</v>
-      </c>
-      <c r="AI48">
-        <v>24.952836868713149</v>
-      </c>
-      <c r="AJ48">
-        <v>24.850399853550766</v>
-      </c>
-      <c r="AK48">
-        <v>24.861651089886493</v>
-      </c>
-      <c r="AL48">
-        <v>24.938908407193225</v>
-      </c>
-      <c r="AM48">
-        <v>24.824468519751548</v>
-      </c>
-      <c r="AN48">
-        <v>24.803977264454854</v>
-      </c>
-      <c r="AO48">
-        <v>24.761574934166426</v>
-      </c>
-      <c r="AP48">
-        <v>24.832319017695674</v>
-      </c>
-      <c r="AQ48">
-        <v>24.835390276166219</v>
-      </c>
-      <c r="AR48">
-        <v>24.868126765270425</v>
-      </c>
-      <c r="AS48">
-        <v>24.981688208820316</v>
-      </c>
-      <c r="AT48">
-        <v>24.943325590735164</v>
-      </c>
-      <c r="AU48">
-        <v>24.926332138890896</v>
-      </c>
-      <c r="AV48">
-        <v>24.941626766566607</v>
-      </c>
-    </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>8</v>
-      </c>
-      <c r="B49">
-        <v>25.753393720742775</v>
-      </c>
-      <c r="C49">
-        <v>25.733642163188847</v>
-      </c>
-      <c r="D49">
-        <v>25.778390634964271</v>
-      </c>
-      <c r="E49">
-        <v>24.744799145391397</v>
-      </c>
-      <c r="F49">
-        <v>24.65799969893224</v>
-      </c>
-      <c r="G49">
-        <v>25.749773736047217</v>
-      </c>
-      <c r="H49">
-        <v>25.938649913247875</v>
-      </c>
-      <c r="I49">
-        <v>26.049171235068084</v>
-      </c>
-      <c r="J49">
-        <v>24.695776074709688</v>
-      </c>
-      <c r="K49">
-        <v>25.70266753946111</v>
-      </c>
-      <c r="L49">
-        <v>25.690135282778439</v>
-      </c>
-      <c r="M49">
-        <v>24.679298948920117</v>
-      </c>
-      <c r="N49">
-        <v>24.601570846911244</v>
-      </c>
-      <c r="O49">
-        <v>25.800735766673302</v>
-      </c>
-      <c r="P49">
-        <v>25.535286320259406</v>
-      </c>
-      <c r="Q49">
-        <v>25.906939061290583</v>
-      </c>
-      <c r="R49">
-        <v>24.915790378181693</v>
-      </c>
-      <c r="S49">
-        <v>24.841531653971224</v>
-      </c>
-      <c r="T49">
-        <v>24.82344435872082</v>
-      </c>
-      <c r="U49">
-        <v>24.806710409805092</v>
-      </c>
-      <c r="V49">
-        <v>24.791332547717669</v>
-      </c>
-      <c r="W49">
-        <v>24.88311659590542</v>
-      </c>
-      <c r="X49">
-        <v>25.009828576456272</v>
-      </c>
-      <c r="Y49">
-        <v>24.809784838422392</v>
-      </c>
-      <c r="Z49">
-        <v>24.063123203463942</v>
-      </c>
-      <c r="AA49">
-        <v>22.615054233101048</v>
-      </c>
-      <c r="AB49">
-        <v>21.979960056101028</v>
-      </c>
-      <c r="AC49">
-        <v>22.76668693284785</v>
-      </c>
-      <c r="AD49">
-        <v>23.868637673876147</v>
-      </c>
-      <c r="AE49">
-        <v>24.811492689709851</v>
-      </c>
-      <c r="AF49">
-        <v>25.019992006393608</v>
-      </c>
-      <c r="AG49">
-        <v>24.661779940436347</v>
-      </c>
-      <c r="AH49">
-        <v>24.824468519751548</v>
-      </c>
-      <c r="AI49">
-        <v>24.920551725535386</v>
-      </c>
-      <c r="AJ49">
-        <v>24.875282129394012</v>
-      </c>
-      <c r="AK49">
-        <v>24.887543681698975</v>
-      </c>
-      <c r="AL49">
-        <v>24.960986508101541</v>
-      </c>
-      <c r="AM49">
-        <v>24.851081891669036</v>
-      </c>
-      <c r="AN49">
-        <v>24.837778770197794</v>
-      </c>
-      <c r="AO49">
-        <v>24.790307017741799</v>
-      </c>
-      <c r="AP49">
-        <v>24.86096934172458</v>
-      </c>
-      <c r="AQ49">
-        <v>24.855173727354014</v>
-      </c>
-      <c r="AR49">
-        <v>24.897416651777416</v>
-      </c>
-      <c r="AS49">
-        <v>25.008473140389025</v>
-      </c>
-      <c r="AT49">
-        <v>24.970830440362931</v>
-      </c>
-      <c r="AU49">
-        <v>24.951478336692613</v>
-      </c>
-      <c r="AV49">
-        <v>24.965739235865225</v>
-      </c>
-    </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>6</v>
-      </c>
-      <c r="B50">
-        <v>25.70860173929789</v>
-      </c>
-      <c r="C50">
-        <v>25.68848584647888</v>
-      </c>
-      <c r="D50">
-        <v>25.733642163188847</v>
-      </c>
-      <c r="E50">
-        <v>24.697834942509793</v>
-      </c>
-      <c r="F50">
-        <v>24.606392995951001</v>
-      </c>
-      <c r="G50">
-        <v>25.705634810619816</v>
-      </c>
-      <c r="H50">
-        <v>25.891232728539403</v>
-      </c>
-      <c r="I50">
-        <v>26.00228151658613</v>
-      </c>
-      <c r="J50">
-        <v>24.651812598808625</v>
-      </c>
-      <c r="K50">
-        <v>25.659108139381512</v>
-      </c>
-      <c r="L50">
-        <v>25.648867553552165</v>
-      </c>
-      <c r="M50">
-        <v>24.629801433305708</v>
-      </c>
-      <c r="N50">
-        <v>24.557093628066557</v>
-      </c>
-      <c r="O50">
-        <v>25.755697082459054</v>
-      </c>
-      <c r="P50">
-        <v>25.490775998720579</v>
-      </c>
-      <c r="Q50">
-        <v>25.863068361753712</v>
-      </c>
-      <c r="R50">
-        <v>24.859605789312106</v>
-      </c>
-      <c r="S50">
-        <v>24.790307017741799</v>
-      </c>
-      <c r="T50">
-        <v>24.776629228613874</v>
-      </c>
-      <c r="U50">
-        <v>24.756098375544983</v>
-      </c>
-      <c r="V50">
-        <v>24.745826561329284</v>
-      </c>
-      <c r="W50">
-        <v>24.836413944591897</v>
-      </c>
-      <c r="X50">
-        <v>24.972866631538523</v>
-      </c>
-      <c r="Y50">
-        <v>24.904903880323161</v>
-      </c>
-      <c r="Z50">
-        <v>24.851763911069281</v>
-      </c>
-      <c r="AA50">
-        <v>24.841872797110057</v>
-      </c>
-      <c r="AB50">
-        <v>24.222135834950222</v>
-      </c>
-      <c r="AC50">
-        <v>22.976037628032074</v>
-      </c>
-      <c r="AD50">
-        <v>22.286273041980234</v>
-      </c>
-      <c r="AE50">
-        <v>23.361202081910609</v>
-      </c>
-      <c r="AF50">
-        <v>24.489707281057168</v>
-      </c>
-      <c r="AG50">
-        <v>24.56261455745917</v>
-      </c>
-      <c r="AH50">
-        <v>24.785178731366106</v>
-      </c>
-      <c r="AI50">
-        <v>24.866763605330505</v>
-      </c>
-      <c r="AJ50">
-        <v>24.83402531929373</v>
-      </c>
-      <c r="AK50">
-        <v>24.842555069333777</v>
-      </c>
-      <c r="AL50">
-        <v>24.925652159837671</v>
-      </c>
-      <c r="AM50">
-        <v>24.807393649092138</v>
-      </c>
-      <c r="AN50">
-        <v>24.789623307521509</v>
-      </c>
-      <c r="AO50">
-        <v>24.748566128641247</v>
-      </c>
-      <c r="AP50">
-        <v>24.814908039663358</v>
-      </c>
-      <c r="AQ50">
-        <v>24.81763998121675</v>
-      </c>
-      <c r="AR50">
-        <v>24.854150831587912</v>
-      </c>
-      <c r="AS50">
-        <v>24.963702463335967</v>
-      </c>
-      <c r="AT50">
-        <v>24.928371964762547</v>
-      </c>
-      <c r="AU50">
-        <v>24.912048681140728</v>
-      </c>
-      <c r="AV50">
-        <v>24.913749522186283</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <v>25.729723276422064</v>
-      </c>
-      <c r="C51">
-        <v>25.70762734049028</v>
-      </c>
-      <c r="D51">
-        <v>25.754764375561901</v>
-      </c>
-      <c r="E51">
-        <v>24.724092428140821</v>
-      </c>
-      <c r="F51">
-        <v>24.627160440914164</v>
-      </c>
-      <c r="G51">
-        <v>25.722140243917014</v>
-      </c>
-      <c r="H51">
-        <v>25.91530538957846</v>
-      </c>
-      <c r="I51">
-        <v>26.023086246863663</v>
-      </c>
-      <c r="J51">
-        <v>24.671205139180131</v>
-      </c>
-      <c r="K51">
-        <v>25.68022839889024</v>
-      </c>
-      <c r="L51">
-        <v>25.667674544832458</v>
-      </c>
-      <c r="M51">
-        <v>24.654353573501506</v>
-      </c>
-      <c r="N51">
-        <v>24.579241260319531</v>
-      </c>
-      <c r="O51">
-        <v>25.776819905574939</v>
-      </c>
-      <c r="P51">
-        <v>25.514552051960735</v>
-      </c>
-      <c r="Q51">
-        <v>25.884522050140447</v>
-      </c>
-      <c r="R51">
-        <v>24.886851667502487</v>
-      </c>
-      <c r="S51">
-        <v>24.814152300010342</v>
-      </c>
-      <c r="T51">
-        <v>24.798081952696556</v>
-      </c>
-      <c r="U51">
-        <v>24.774470429700308</v>
-      </c>
-      <c r="V51">
-        <v>24.765567494675611</v>
-      </c>
-      <c r="W51">
-        <v>24.861618708717298</v>
-      </c>
-      <c r="X51">
-        <v>24.991262255903397</v>
-      </c>
-      <c r="Y51">
-        <v>24.929757128789365</v>
-      </c>
-      <c r="Z51">
-        <v>24.873897399493767</v>
-      </c>
-      <c r="AA51">
-        <v>24.91308045200638</v>
-      </c>
-      <c r="AB51">
-        <v>24.927375429465627</v>
-      </c>
-      <c r="AC51">
-        <v>24.908654153501782</v>
-      </c>
-      <c r="AD51">
-        <v>24.290788559061536</v>
-      </c>
-      <c r="AE51">
-        <v>23.316606145350669</v>
-      </c>
-      <c r="AF51">
-        <v>22.902974165267882</v>
-      </c>
-      <c r="AG51">
-        <v>23.023755110890935</v>
-      </c>
-      <c r="AH51">
-        <v>24.152118987143268</v>
-      </c>
-      <c r="AI51">
-        <v>24.785081288003198</v>
-      </c>
-      <c r="AJ51">
-        <v>24.849333950726756</v>
-      </c>
-      <c r="AK51">
-        <v>24.870146220478677</v>
-      </c>
-      <c r="AL51">
-        <v>24.944722603200784</v>
-      </c>
-      <c r="AM51">
-        <v>24.830553834580012</v>
-      </c>
-      <c r="AN51">
-        <v>24.813810486092109</v>
-      </c>
-      <c r="AO51">
-        <v>24.772416190222778</v>
-      </c>
-      <c r="AP51">
-        <v>24.842165036446588</v>
-      </c>
-      <c r="AQ51">
-        <v>24.845579063128884</v>
-      </c>
-      <c r="AR51">
-        <v>24.881398060913877</v>
-      </c>
-      <c r="AS51">
-        <v>24.989225837805748</v>
-      </c>
-      <c r="AT51">
-        <v>24.95356161932396</v>
-      </c>
-      <c r="AU51">
-        <v>24.93349933950261</v>
-      </c>
-      <c r="AV51">
-        <v>24.94676265412247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>25.803130172859984</v>
-      </c>
-      <c r="C52">
-        <v>25.783399989387021</v>
-      </c>
-      <c r="D52">
-        <v>25.830727111413754</v>
-      </c>
-      <c r="E52">
-        <v>24.800476068647395</v>
-      </c>
-      <c r="F52">
-        <v>24.706590344402862</v>
-      </c>
-      <c r="G52">
-        <v>25.80082909556706</v>
-      </c>
-      <c r="H52">
-        <v>25.986882578673434</v>
-      </c>
-      <c r="I52">
-        <v>26.095992952490246</v>
-      </c>
-      <c r="J52">
-        <v>24.751521744498113</v>
-      </c>
-      <c r="K52">
-        <v>25.757728156738469</v>
-      </c>
-      <c r="L52">
-        <v>25.737963169054442</v>
-      </c>
-      <c r="M52">
-        <v>24.731638522757773</v>
-      </c>
-      <c r="N52">
-        <v>24.664328339754761</v>
-      </c>
-      <c r="O52">
-        <v>25.848780574083001</v>
-      </c>
-      <c r="P52">
-        <v>25.589239150575452</v>
-      </c>
-      <c r="Q52">
-        <v>25.963698805069612</v>
-      </c>
-      <c r="R52">
-        <v>24.967833419878104</v>
-      </c>
-      <c r="S52">
-        <v>24.888896461891491</v>
-      </c>
-      <c r="T52">
-        <v>24.868782015095434</v>
-      </c>
-      <c r="U52">
-        <v>24.850699223732054</v>
-      </c>
-      <c r="V52">
-        <v>24.84523768157138</v>
-      </c>
-      <c r="W52">
-        <v>24.935880453913683</v>
-      </c>
-      <c r="X52">
-        <v>25.06480151146544</v>
-      </c>
-      <c r="Y52">
-        <v>24.866053379799194</v>
-      </c>
-      <c r="Z52">
-        <v>24.157035020194865</v>
-      </c>
-      <c r="AA52">
-        <v>23.176865421253087</v>
-      </c>
-      <c r="AB52">
-        <v>23.12887521114364</v>
-      </c>
-      <c r="AC52">
-        <v>23.853880891540189</v>
-      </c>
-      <c r="AD52">
-        <v>24.421031273225076</v>
-      </c>
-      <c r="AE52">
-        <v>24.948122595393329</v>
-      </c>
-      <c r="AF52">
-        <v>25.070553539804354</v>
-      </c>
-      <c r="AG52">
-        <v>24.713798585867632</v>
-      </c>
-      <c r="AH52">
-        <v>24.878329881845438</v>
-      </c>
-      <c r="AI52">
-        <v>24.989904662276846</v>
-      </c>
-      <c r="AJ52">
-        <v>24.932818979332225</v>
-      </c>
-      <c r="AK52">
-        <v>24.947782617025531</v>
-      </c>
-      <c r="AL52">
-        <v>25.021110679659404</v>
-      </c>
-      <c r="AM52">
-        <v>24.91308045200638</v>
-      </c>
-      <c r="AN52">
-        <v>24.885829207302489</v>
-      </c>
-      <c r="AO52">
-        <v>24.848309946744859</v>
-      </c>
-      <c r="AP52">
-        <v>24.915803937169152</v>
-      </c>
-      <c r="AQ52">
-        <v>24.918186742504982</v>
-      </c>
-      <c r="AR52">
-        <v>24.954581304334472</v>
-      </c>
-      <c r="AS52">
-        <v>25.06717015357054</v>
-      </c>
-      <c r="AT52">
-        <v>25.025856010165977</v>
-      </c>
-      <c r="AU52">
-        <v>25.011617317722106</v>
-      </c>
-      <c r="AV52">
-        <v>25.024500293270691</v>
-      </c>
-    </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <v>25.577303870471624</v>
-      </c>
-      <c r="C53">
-        <v>25.55573994106879</v>
-      </c>
-      <c r="D53">
-        <v>25.599180966541894</v>
-      </c>
-      <c r="E53">
-        <v>24.556800923289863</v>
-      </c>
-      <c r="F53">
-        <v>24.457125248133391</v>
-      </c>
-      <c r="G53">
-        <v>25.55706747749425</v>
-      </c>
-      <c r="H53">
-        <v>25.744882640794756</v>
-      </c>
-      <c r="I53">
-        <v>25.861574483685892</v>
-      </c>
-      <c r="J53">
-        <v>24.508052025400314</v>
-      </c>
-      <c r="K53">
-        <v>25.517543733046466</v>
-      </c>
-      <c r="L53">
-        <v>25.513554746976595</v>
-      </c>
-      <c r="M53">
-        <v>24.488317479160052</v>
-      </c>
-      <c r="N53">
-        <v>24.424504165529672</v>
-      </c>
-      <c r="O53">
-        <v>25.614086455237608</v>
-      </c>
-      <c r="P53">
-        <v>25.352811582376169</v>
-      </c>
-      <c r="Q53">
-        <v>25.723129461886572</v>
-      </c>
-      <c r="R53">
-        <v>24.722720163477046</v>
-      </c>
-      <c r="S53">
-        <v>24.64919262777217</v>
-      </c>
-      <c r="T53">
-        <v>24.628538030020845</v>
-      </c>
-      <c r="U53">
-        <v>24.62681603159681</v>
-      </c>
-      <c r="V53">
-        <v>24.612691100104094</v>
-      </c>
-      <c r="W53">
-        <v>24.698006361562729</v>
-      </c>
-      <c r="X53">
-        <v>24.831236996750768</v>
-      </c>
-      <c r="Y53">
-        <v>24.748094742509451</v>
-      </c>
-      <c r="Z53">
-        <v>24.587521746099746</v>
-      </c>
-      <c r="AA53">
-        <v>24.339275652134109</v>
-      </c>
-      <c r="AB53">
-        <v>23.794782786801754</v>
-      </c>
-      <c r="AC53">
-        <v>23.428377854407437</v>
-      </c>
-      <c r="AD53">
-        <v>23.32533487046517</v>
-      </c>
-      <c r="AE53">
-        <v>23.869876253688712</v>
-      </c>
-      <c r="AF53">
-        <v>24.353907437287194</v>
-      </c>
-      <c r="AG53">
-        <v>24.257244486818767</v>
-      </c>
-      <c r="AH53">
-        <v>24.584761894059838</v>
-      </c>
-      <c r="AI53">
-        <v>24.737468019249519</v>
-      </c>
-      <c r="AJ53">
-        <v>24.658825519408001</v>
-      </c>
-      <c r="AK53">
-        <v>24.665359981895087</v>
-      </c>
-      <c r="AL53">
-        <v>24.754605640649746</v>
-      </c>
-      <c r="AM53">
-        <v>24.62164931372196</v>
-      </c>
-      <c r="AN53">
-        <v>24.599247662906297</v>
-      </c>
-      <c r="AO53">
-        <v>24.572683896821886</v>
-      </c>
-      <c r="AP53">
-        <v>24.629915542076851</v>
-      </c>
-      <c r="AQ53">
-        <v>24.650224903360606</v>
-      </c>
-      <c r="AR53">
-        <v>24.686670933889282</v>
-      </c>
-      <c r="AS53">
-        <v>24.786107904190363</v>
-      </c>
-      <c r="AT53">
-        <v>24.743296142317604</v>
-      </c>
-      <c r="AU53">
-        <v>24.740553667190188</v>
-      </c>
-      <c r="AV53">
-        <v>24.736782267436581</v>
-      </c>
-    </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>-2</v>
-      </c>
-      <c r="B54">
-        <v>25.838606537239183</v>
-      </c>
-      <c r="C54">
-        <v>25.815946705974191</v>
-      </c>
-      <c r="D54">
-        <v>25.864853953954047</v>
-      </c>
-      <c r="E54">
-        <v>24.831920140126737</v>
-      </c>
-      <c r="F54">
-        <v>24.7470665493707</v>
-      </c>
-      <c r="G54">
-        <v>25.841232478610046</v>
-      </c>
-      <c r="H54">
-        <v>26.015914748219</v>
-      </c>
-      <c r="I54">
-        <v>26.136913604260418</v>
-      </c>
-      <c r="J54">
-        <v>24.78576570351931</v>
-      </c>
-      <c r="K54">
-        <v>25.797870266030383</v>
-      </c>
-      <c r="L54">
-        <v>25.778136056707048</v>
-      </c>
-      <c r="M54">
-        <v>24.770361780384395</v>
-      </c>
-      <c r="N54">
-        <v>24.696289206958269</v>
-      </c>
-      <c r="O54">
-        <v>25.883211308694893</v>
-      </c>
-      <c r="P54">
-        <v>25.622694563124082</v>
-      </c>
-      <c r="Q54">
-        <v>26.000913404716357</v>
-      </c>
-      <c r="R54">
-        <v>24.997031206252839</v>
-      </c>
-      <c r="S54">
-        <v>24.921590354920976</v>
-      </c>
-      <c r="T54">
-        <v>24.904227068298685</v>
-      </c>
-      <c r="U54">
-        <v>24.887192478234368</v>
-      </c>
-      <c r="V54">
-        <v>24.877988949702299</v>
-      </c>
-      <c r="W54">
-        <v>24.971909579039984</v>
-      </c>
-      <c r="X54">
-        <v>25.104024460336511</v>
-      </c>
-      <c r="Y54">
-        <v>25.042118888093881</v>
-      </c>
-      <c r="Z54">
-        <v>24.985831438811861</v>
-      </c>
-      <c r="AA54">
-        <v>25.027211653622469</v>
-      </c>
-      <c r="AB54">
-        <v>25.008225957953062</v>
-      </c>
-      <c r="AC54">
-        <v>24.910697158233951</v>
-      </c>
-      <c r="AD54">
-        <v>24.335790597110854</v>
-      </c>
-      <c r="AE54">
-        <v>23.766606176027285</v>
-      </c>
-      <c r="AF54">
-        <v>23.468890132923772</v>
-      </c>
-      <c r="AG54">
-        <v>23.351138244991954</v>
-      </c>
-      <c r="AH54">
-        <v>24.179495585834939</v>
-      </c>
-      <c r="AI54">
-        <v>24.749465600248413</v>
-      </c>
-      <c r="AJ54">
-        <v>24.908654153501782</v>
-      </c>
-      <c r="AK54">
-        <v>24.975985072959901</v>
-      </c>
-      <c r="AL54">
-        <v>25.061417348686032</v>
-      </c>
-      <c r="AM54">
-        <v>24.952201974489988</v>
-      </c>
-      <c r="AN54">
-        <v>24.9239726070582</v>
-      </c>
-      <c r="AO54">
-        <v>24.885147543830271</v>
-      </c>
-      <c r="AP54">
-        <v>24.935540308632987</v>
-      </c>
-      <c r="AQ54">
-        <v>24.957300260684264</v>
-      </c>
-      <c r="AR54">
-        <v>24.990244067597661</v>
-      </c>
-      <c r="AS54">
-        <v>25.103348721800963</v>
-      </c>
-      <c r="AT54">
-        <v>25.063109487194335</v>
-      </c>
-      <c r="AU54">
-        <v>25.049230577048078</v>
-      </c>
-      <c r="AV54">
-        <v>25.05938663165038</v>
-      </c>
-    </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>-4</v>
-      </c>
-      <c r="B55">
-        <v>25.793924632013013</v>
-      </c>
-      <c r="C55">
-        <v>25.769909009302932</v>
-      </c>
-      <c r="D55">
-        <v>25.816275251362534</v>
-      </c>
-      <c r="E55">
-        <v>24.790213943795138</v>
-      </c>
-      <c r="F55">
-        <v>24.693541511221355</v>
-      </c>
-      <c r="G55">
-        <v>25.787018319791756</v>
-      </c>
-      <c r="H55">
-        <v>25.951282079324031</v>
-      </c>
-      <c r="I55">
-        <v>26.089816809179712</v>
-      </c>
-      <c r="J55">
-        <v>24.732667357274629</v>
-      </c>
-      <c r="K55">
-        <v>25.752129617051114</v>
-      </c>
-      <c r="L55">
-        <v>25.731701091294735</v>
-      </c>
-      <c r="M55">
-        <v>24.717916637204677</v>
-      </c>
-      <c r="N55">
-        <v>24.651257135722336</v>
-      </c>
-      <c r="O55">
-        <v>25.838278275803241</v>
-      </c>
-      <c r="P55">
-        <v>25.57431918012125</v>
-      </c>
-      <c r="Q55">
-        <v>25.950955243154937</v>
-      </c>
-      <c r="R55">
-        <v>24.951862051705245</v>
-      </c>
-      <c r="S55">
-        <v>24.875602293866418</v>
-      </c>
-      <c r="T55">
-        <v>24.858206884920378</v>
-      </c>
-      <c r="U55">
-        <v>24.840457847148866</v>
-      </c>
-      <c r="V55">
-        <v>24.831578570788004</v>
-      </c>
-      <c r="W55">
-        <v>24.921250014597508</v>
-      </c>
-      <c r="X55">
-        <v>25.057694241738769</v>
-      </c>
-      <c r="Y55">
-        <v>24.99397722193595</v>
-      </c>
-      <c r="Z55">
-        <v>24.935880453913683</v>
-      </c>
-      <c r="AA55">
-        <v>24.987189253743104</v>
-      </c>
-      <c r="AB55">
-        <v>24.990244067597661</v>
-      </c>
-      <c r="AC55">
-        <v>25.00517334089712</v>
-      </c>
-      <c r="AD55">
-        <v>24.825429519059032</v>
-      </c>
-      <c r="AE55">
-        <v>24.620271339167839</v>
-      </c>
-      <c r="AF55">
-        <v>23.839653782117512</v>
-      </c>
-      <c r="AG55">
-        <v>22.470034706506798</v>
-      </c>
-      <c r="AH55">
-        <v>22.572097286512605</v>
-      </c>
-      <c r="AI55">
-        <v>23.435255405665053</v>
-      </c>
-      <c r="AJ55">
-        <v>24.307543236306348</v>
-      </c>
-      <c r="AK55">
-        <v>24.755976137848894</v>
-      </c>
-      <c r="AL55">
-        <v>24.967493709909455</v>
-      </c>
-      <c r="AM55">
-        <v>24.866394475585654</v>
-      </c>
-      <c r="AN55">
-        <v>24.841482174806345</v>
-      </c>
-      <c r="AO55">
-        <v>24.80457972981036</v>
-      </c>
-      <c r="AP55">
-        <v>24.845579063128884</v>
-      </c>
-      <c r="AQ55">
-        <v>24.879693563699277</v>
-      </c>
-      <c r="AR55">
-        <v>24.916484761945888</v>
-      </c>
-      <c r="AS55">
-        <v>25.019076691062811</v>
-      </c>
-      <c r="AT55">
-        <v>24.983794578050702</v>
-      </c>
-      <c r="AU55">
-        <v>24.970550933251218</v>
-      </c>
-      <c r="AV55">
-        <v>24.975305870156784</v>
-      </c>
-    </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>-6</v>
-      </c>
-      <c r="B56">
-        <v>25.843858153164401</v>
-      </c>
-      <c r="C56">
-        <v>25.822845281308403</v>
-      </c>
-      <c r="D56">
-        <v>25.86878876948705</v>
-      </c>
-      <c r="E56">
-        <v>24.843872108431864</v>
-      </c>
-      <c r="F56">
-        <v>24.749122892932299</v>
-      </c>
-      <c r="G56">
-        <v>25.842545349234204</v>
-      </c>
-      <c r="H56">
-        <v>26.002870592495022</v>
-      </c>
-      <c r="I56">
-        <v>26.139509578105795</v>
-      </c>
-      <c r="J56">
-        <v>24.789187497654961</v>
-      </c>
-      <c r="K56">
-        <v>25.808060361905657</v>
-      </c>
-      <c r="L56">
-        <v>25.779123125958762</v>
-      </c>
-      <c r="M56">
-        <v>24.772073800414805</v>
-      </c>
-      <c r="N56">
-        <v>24.696632647430651</v>
-      </c>
-      <c r="O56">
-        <v>25.887143333931579</v>
-      </c>
-      <c r="P56">
-        <v>25.629976088561893</v>
-      </c>
-      <c r="Q56">
-        <v>26.006784526177189</v>
-      </c>
-      <c r="R56">
-        <v>25.003477281495119</v>
-      </c>
-      <c r="S56">
-        <v>24.929757128789365</v>
-      </c>
-      <c r="T56">
-        <v>24.911718597770143</v>
-      </c>
-      <c r="U56">
-        <v>24.894348425804949</v>
-      </c>
-      <c r="V56">
-        <v>24.885488377900398</v>
-      </c>
-      <c r="W56">
-        <v>24.97666425729312</v>
-      </c>
-      <c r="X56">
-        <v>25.108078509637902</v>
-      </c>
-      <c r="Y56">
-        <v>25.047537500921141</v>
-      </c>
-      <c r="Z56">
-        <v>24.992280402728031</v>
-      </c>
-      <c r="AA56">
-        <v>25.037376639888485</v>
-      </c>
-      <c r="AB56">
-        <v>25.047537500921141</v>
-      </c>
-      <c r="AC56">
-        <v>25.053293492933964</v>
-      </c>
-      <c r="AD56">
-        <v>24.905929886503944</v>
-      </c>
-      <c r="AE56">
-        <v>24.967833419878104</v>
-      </c>
-      <c r="AF56">
-        <v>24.648504420029017</v>
-      </c>
-      <c r="AG56">
-        <v>23.340238890900597</v>
-      </c>
-      <c r="AH56">
-        <v>22.270219582157008</v>
-      </c>
-      <c r="AI56">
-        <v>21.858128414340001</v>
-      </c>
-      <c r="AJ56">
-        <v>21.685937798924666</v>
-      </c>
-      <c r="AK56">
-        <v>22.784531157144546</v>
-      </c>
-      <c r="AL56">
-        <v>24.105718529396512</v>
-      </c>
-      <c r="AM56">
-        <v>24.662608840290201</v>
-      </c>
-      <c r="AN56">
-        <v>24.953901518957142</v>
-      </c>
-      <c r="AO56">
-        <v>24.910356669081057</v>
-      </c>
-      <c r="AP56">
-        <v>24.957979953489396</v>
-      </c>
-      <c r="AQ56">
-        <v>24.986510355500769</v>
-      </c>
-      <c r="AR56">
-        <v>25.01772060679443</v>
-      </c>
-      <c r="AS56">
-        <v>25.132726553646268</v>
-      </c>
-      <c r="AT56">
-        <v>25.090506231812412</v>
-      </c>
-      <c r="AU56">
-        <v>25.080024593045881</v>
-      </c>
-      <c r="AV56">
-        <v>25.092196408658353</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA_ANALYSIS/wake_velocities.xlsx
+++ b/DATA_ANALYSIS/wake_velocities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexv\OneDrive - Delft University of Technology\GitHub\2D-Wind-Tunnel\DATA_ANALYSIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D3BF73-2435-4E52-8DDB-49FCF4C69147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E41EBB-4A0C-4F26-811C-11EE2B31FCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{3012C55B-4FF9-472E-9306-58214AED9E0F}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C3A6E-A9A0-4C78-AE51-EDE9626D2C15}">
   <dimension ref="A1:AV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -721,145 +721,192 @@
         <v>48</v>
       </c>
       <c r="B3">
+        <f>0*0.001</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <f>12*0.001</f>
+        <v>1.2E-2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <f>21*0.001</f>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <f>27*0.001</f>
+        <v>2.7E-2</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <f>33*0.001</f>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <f>0.001*39</f>
+        <v>3.9E-2</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <f>45*0.001</f>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <f>51*0.001</f>
+        <v>5.1000000000000004E-2</v>
       </c>
       <c r="J3">
-        <v>57</v>
+        <f>57*0.001</f>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="K3">
-        <v>63</v>
+        <f>63*0.001</f>
+        <v>6.3E-2</v>
       </c>
       <c r="L3">
-        <v>69</v>
+        <f>69*0.001</f>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="M3">
-        <v>72</v>
+        <f>72*0.001</f>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="N3">
-        <v>75</v>
+        <f>75*0.001</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O3">
-        <v>78</v>
+        <f>78*0.001</f>
+        <v>7.8E-2</v>
       </c>
       <c r="P3">
-        <v>81</v>
+        <f>81*0.001</f>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q3">
-        <v>84</v>
+        <f>84*0.001</f>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="R3">
-        <v>87</v>
+        <f>87*0.001</f>
+        <v>8.7000000000000008E-2</v>
       </c>
       <c r="S3">
-        <v>90</v>
+        <f>90*0.001</f>
+        <v>0.09</v>
       </c>
       <c r="T3">
-        <v>93</v>
+        <f>0.001*93</f>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="U3">
-        <v>96</v>
+        <f>96*0.001</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="V3">
-        <v>99</v>
+        <f>99*0.001</f>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="W3">
-        <v>102</v>
+        <f>102*0.001</f>
+        <v>0.10200000000000001</v>
       </c>
       <c r="X3">
-        <v>105</v>
+        <f>0.001*105</f>
+        <v>0.105</v>
       </c>
       <c r="Y3">
-        <v>108</v>
+        <f>108*0.001</f>
+        <v>0.108</v>
       </c>
       <c r="Z3">
-        <v>111</v>
+        <f>0.001*111</f>
+        <v>0.111</v>
       </c>
       <c r="AA3">
-        <v>114</v>
+        <f>0.001*114</f>
+        <v>0.114</v>
       </c>
       <c r="AB3">
-        <v>117</v>
+        <f>0.001*117</f>
+        <v>0.11700000000000001</v>
       </c>
       <c r="AC3">
-        <v>120</v>
+        <f>0.001*120</f>
+        <v>0.12</v>
       </c>
       <c r="AD3">
-        <v>123</v>
+        <f>0.001*123</f>
+        <v>0.123</v>
       </c>
       <c r="AE3">
-        <v>126</v>
+        <f>0.001*126</f>
+        <v>0.126</v>
       </c>
       <c r="AF3">
-        <v>129</v>
+        <f>0.001*129</f>
+        <v>0.129</v>
       </c>
       <c r="AG3">
-        <v>132</v>
+        <f>0.001*132</f>
+        <v>0.13200000000000001</v>
       </c>
       <c r="AH3">
-        <v>135</v>
+        <f>0.001*135</f>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AI3">
-        <v>138</v>
+        <f>0.001*138</f>
+        <v>0.13800000000000001</v>
       </c>
       <c r="AJ3">
-        <v>141</v>
+        <f>0.001*141</f>
+        <v>0.14100000000000001</v>
       </c>
       <c r="AK3">
-        <v>144</v>
+        <f>0.001*144</f>
+        <v>0.14400000000000002</v>
       </c>
       <c r="AL3">
-        <v>147</v>
+        <f>0.001*147</f>
+        <v>0.14699999999999999</v>
       </c>
       <c r="AM3">
-        <v>150</v>
+        <f>0.001*150</f>
+        <v>0.15</v>
       </c>
       <c r="AN3">
-        <v>156</v>
+        <f>0.001*156</f>
+        <v>0.156</v>
       </c>
       <c r="AO3">
-        <v>162</v>
+        <f>0.001*162</f>
+        <v>0.16200000000000001</v>
       </c>
       <c r="AP3">
-        <v>168</v>
+        <f>0.001*168</f>
+        <v>0.16800000000000001</v>
       </c>
       <c r="AQ3">
-        <v>174</v>
+        <f>0.001*174</f>
+        <v>0.17400000000000002</v>
       </c>
       <c r="AR3">
-        <v>180</v>
+        <f>0.001*180</f>
+        <v>0.18</v>
       </c>
       <c r="AS3">
-        <v>186</v>
+        <f>0.001*186</f>
+        <v>0.186</v>
       </c>
       <c r="AT3">
-        <v>195</v>
+        <f>0.001*195</f>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AU3">
-        <v>207</v>
+        <f>0.001*207</f>
+        <v>0.20700000000000002</v>
       </c>
       <c r="AV3">
-        <v>219</v>
+        <f>0.001*219</f>
+        <v>0.219</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.45">
